--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665754.124394061</v>
+        <v>1743196.57133794</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13321523.0250434</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2370479.640547424</v>
+        <v>698313.6830760743</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6497347.896163501</v>
+        <v>7022573.291644963</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>340.4010259964147</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>410.0488764785338</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -820,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>51.58543740429482</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>259.9625631056326</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -902,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>244.9078178679314</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>24.33670114922102</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>58.33552926585337</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>18.42910700403934</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,10 +1135,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>376.6503815314196</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>302.6251055897274</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1302,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>6.354375395473034</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>8.311138229708806</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1379,16 +1381,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>10.305069337319</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1534,16 +1536,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>49.39035981308291</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1610,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>311.0876633699169</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>246.4873869990359</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>123.0673923170405</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.466802178090668</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1816,10 +1818,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1853,13 +1855,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>48.6443157038387</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>45.85825750002807</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>111.2662746329924</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>213.3528967098532</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,13 +2487,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.3946368162632</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>127.1775712042722</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2713,13 +2715,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2773,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>119.6813540266635</v>
+        <v>19.38187398371</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.7124257502075</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>138.1997527838613</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3238,13 +3240,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>29.28406634153955</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>202.2484867509681</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.94314712681573</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>16.519355339532</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3563,7 +3565,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3661,10 +3663,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>181.4406923932708</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>222.7323691218188</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3745,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>92.45806187976899</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3803,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>74.24516229464132</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>122.8393954565538</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3983,10 +3985,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>312.9009087555611</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>7.783596214614808</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>106.38799505241</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4147,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4307,22 +4309,22 @@
         <v>854.9492380147274</v>
       </c>
       <c r="C2" t="n">
-        <v>511.1098178163287</v>
+        <v>832.0889120684316</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>812.8366952938359</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4331,25 +4333,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N2" t="n">
-        <v>1006.023847611597</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>966.8891568663047</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>966.8891568663047</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M3" t="n">
-        <v>966.8891568663047</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N3" t="n">
-        <v>966.8891568663047</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O3" t="n">
-        <v>1128.080930530456</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514894</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989122</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C4" t="n">
-        <v>96.60472747782816</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4513,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1671.944843794003</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1397.092439966515</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>1154.528543412321</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1354.324971573228</v>
+        <v>1674.816201625927</v>
       </c>
       <c r="C5" t="n">
-        <v>927.4242415865283</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D5" t="n">
-        <v>504.1316207715285</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>78.15468091938605</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>57.07090314919036</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>56.77224477904305</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>56.77224477904305</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>759.3287739197008</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1315.942845788934</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="M5" t="n">
-        <v>2018.499374929592</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>2018.499374929592</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>2721.05590407025</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>2721.05590407025</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2721.05590407025</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2838.612238952152</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2838.612238952152</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2591.230604742121</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2591.230604742121</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2591.230604742121</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>2179.510605909868</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y5" t="n">
-        <v>1774.173335864758</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623.8957358104983</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>506.3898323280031</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>402.5498738432881</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>297.8479401162253</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>204.2021097991295</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>110.1483380167335</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>64.21888774095488</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>335.916377020546</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>378.327506993534</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>1080.884036134192</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>1080.884036134192</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1080.884036134192</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1080.884036134192</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1783.44056527485</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1783.44056527485</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1865.459875359553</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1784.135627920807</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.255692218486</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1457.487496138122</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1252.514357277388</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1055.992980110606</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>892.5156338772687</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>752.8227452305611</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1139.95336730328</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C7" t="n">
-        <v>967.9808041821959</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="D7" t="n">
-        <v>804.6640313089666</v>
+        <v>103.4230020854631</v>
       </c>
       <c r="E7" t="n">
-        <v>638.4558254618202</v>
+        <v>103.4230020854631</v>
       </c>
       <c r="F7" t="n">
-        <v>466.5940512363806</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>300.3370815306127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>156.5408130387671</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>114.2635730032011</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>340.7911742090382</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>695.480495503459</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1086.66629047371</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1464.157801349746</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1819.585930029509</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2110.18514195141</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2237.185272192171</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2190.146658879345</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2190.146658879345</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1946.807311105244</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>1666.622862605549</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V7" t="n">
-        <v>1384.911395213578</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W7" t="n">
-        <v>1366.296135613538</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X7" t="n">
-        <v>1366.296135613538</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y7" t="n">
-        <v>1139.95336730328</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1205.315256083607</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C8" t="n">
-        <v>778.4145260969074</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D8" t="n">
-        <v>397.9595952570896</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>376.0230594453512</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>354.9392816751555</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>354.6406233050082</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>56.77224477904305</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>157.3008371440931</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>157.3008371440931</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>157.3008371440931</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>859.8573662847508</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1562.413895425409</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>2264.970424566066</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2721.05590407025</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2838.612238952152</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2838.612238952152</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2838.612238952152</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>2442.2208892525</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.500890420247</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1625.163620375137</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>623.8957358104983</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>506.3898323280031</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>402.5498738432881</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>297.8479401162253</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>204.2021097991295</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>110.1483380167335</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>56.77224477904305</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>647.2571713473826</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>647.2571713473826</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>647.2571713473826</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>647.2571713473826</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1080.884036134192</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1783.44056527485</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1783.44056527485</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1865.459875359553</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1784.135627920807</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1642.255692218486</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1457.487496138122</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1252.514357277388</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1055.992980110606</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>892.5156338772687</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>752.8227452305611</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1575.937120843349</v>
+        <v>992.2781682025568</v>
       </c>
       <c r="C10" t="n">
-        <v>1403.964557722265</v>
+        <v>820.3056050814728</v>
       </c>
       <c r="D10" t="n">
-        <v>1240.647784849036</v>
+        <v>656.9888322082435</v>
       </c>
       <c r="E10" t="n">
-        <v>1074.43957900189</v>
+        <v>490.780626361097</v>
       </c>
       <c r="F10" t="n">
-        <v>1068.021017996361</v>
+        <v>318.9188521356574</v>
       </c>
       <c r="G10" t="n">
-        <v>901.7640482905937</v>
+        <v>152.6618824298895</v>
       </c>
       <c r="H10" t="n">
-        <v>757.9677797987481</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>658.1992115390241</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>715.6905397631821</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>942.2181409690193</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>1296.90746226344</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1688.093257233691</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>2065.584768109727</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>2421.01289678949</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2711.612108711391</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2791.573625639326</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2791.573625639326</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2791.573625639326</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U10" t="n">
-        <v>2791.573625639326</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V10" t="n">
-        <v>2509.862158247355</v>
+        <v>1699.860437296304</v>
       </c>
       <c r="W10" t="n">
-        <v>2235.009754419868</v>
+        <v>1425.008033468817</v>
       </c>
       <c r="X10" t="n">
-        <v>1992.445857865673</v>
+        <v>1182.444136914623</v>
       </c>
       <c r="Y10" t="n">
-        <v>1766.103089555415</v>
+        <v>1182.444136914623</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1332.942535432885</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>906.0418054461852</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>482.7491846311855</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>56.77224477904305</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>56.77224477904305</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>56.77224477904305</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>56.77224477904305</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>759.3287739197008</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1315.942845788934</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1315.942845788934</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>2018.499374929592</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>2721.05590407025</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="P11" t="n">
-        <v>2721.05590407025</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>2721.05590407025</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2838.612238952152</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2580.257329548564</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2580.257329548564</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2569.848168601778</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2158.128169769525</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1752.790899724415</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>623.8957358104983</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>506.3898323280031</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>402.5498738432881</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>297.8479401162253</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>204.2021097991295</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>110.1483380167335</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>56.77224477904305</v>
+        <v>100.4651792804189</v>
       </c>
       <c r="J12" t="n">
-        <v>328.4697340586341</v>
+        <v>100.4651792804189</v>
       </c>
       <c r="K12" t="n">
-        <v>616.7385592714126</v>
+        <v>100.4651792804189</v>
       </c>
       <c r="L12" t="n">
-        <v>1319.29508841207</v>
+        <v>937.263987363325</v>
       </c>
       <c r="M12" t="n">
-        <v>1319.29508841207</v>
+        <v>937.263987363325</v>
       </c>
       <c r="N12" t="n">
-        <v>1319.29508841207</v>
+        <v>937.263987363325</v>
       </c>
       <c r="O12" t="n">
-        <v>1319.29508841207</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P12" t="n">
-        <v>1319.29508841207</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q12" t="n">
-        <v>1783.44056527485</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1784.135627920807</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1642.255692218486</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1457.487496138122</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.514357277388</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1055.992980110606</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>892.5156338772687</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>752.8227452305611</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1139.95336730328</v>
+        <v>706.996623358467</v>
       </c>
       <c r="C13" t="n">
-        <v>967.9808041821959</v>
+        <v>535.024060237383</v>
       </c>
       <c r="D13" t="n">
-        <v>804.6640313089666</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="E13" t="n">
-        <v>638.4558254618202</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="F13" t="n">
-        <v>466.5940512363806</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G13" t="n">
-        <v>300.3370815306127</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H13" t="n">
-        <v>156.5408130387671</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>695.480495503459</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2237.185272192171</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2237.185272192171</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2237.185272192171</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>2237.185272192171</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>2073.878404707285</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.026000879798</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X13" t="n">
-        <v>1556.462104325604</v>
+        <v>933.3393916687249</v>
       </c>
       <c r="Y13" t="n">
-        <v>1330.119336015346</v>
+        <v>706.996623358467</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2007.04387582837</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1580.14314584167</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1156.85052502667</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>730.8735851745276</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>305.7494033639279</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>56.77224477904305</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>56.77224477904305</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>759.3287739197008</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>759.3287739197008</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1315.942845788934</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2018.499374929592</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>2721.05590407025</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P14" t="n">
-        <v>2721.05590407025</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>2721.05590407025</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2838.612238952152</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2838.612238952152</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2838.612238952152</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2838.612238952152</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2426.8922401199</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2426.8922401199</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>623.8957358104983</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>506.3898323280031</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>402.5498738432881</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>297.8479401162253</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>204.2021097991295</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>110.1483380167335</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>56.77224477904305</v>
+        <v>770.7587273987515</v>
       </c>
       <c r="M15" t="n">
-        <v>460.3468170782372</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="N15" t="n">
-        <v>1162.903346218895</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="O15" t="n">
-        <v>1865.459875359553</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P15" t="n">
-        <v>1865.459875359553</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q15" t="n">
-        <v>1865.459875359553</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1784.135627920807</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1642.255692218486</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1457.487496138122</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.514357277388</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1055.992980110606</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>892.5156338772687</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>752.8227452305611</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>280.851310328707</v>
+        <v>847.6798067024497</v>
       </c>
       <c r="C16" t="n">
-        <v>156.5408130387671</v>
+        <v>675.7072435813657</v>
       </c>
       <c r="D16" t="n">
-        <v>156.5408130387671</v>
+        <v>512.3904707081364</v>
       </c>
       <c r="E16" t="n">
-        <v>156.5408130387671</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F16" t="n">
-        <v>156.5408130387671</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>156.5408130387671</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>156.5408130387671</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>695.480495503459</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2190.146658879345</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2020.01161139848</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1776.672263624379</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U16" t="n">
-        <v>1496.487815124684</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="V16" t="n">
-        <v>1214.776347732713</v>
+        <v>1781.604844106455</v>
       </c>
       <c r="W16" t="n">
-        <v>939.9239439052255</v>
+        <v>1506.752440278968</v>
       </c>
       <c r="X16" t="n">
-        <v>697.3600473510306</v>
+        <v>1264.188543724773</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.0172790407727</v>
+        <v>1037.845775414515</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,16 +5515,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
         <v>3444.155406100785</v>
@@ -5589,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>913.7427045492574</v>
+        <v>796.7321961672538</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>624.7596330461698</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>461.4428601729405</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>295.2346543257941</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>295.2346543257941</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>295.2346543257941</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>151.4383858339484</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2236.394268596706</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1993.054920822606</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.87047232291</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V19" t="n">
-        <v>1431.159004930939</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W19" t="n">
-        <v>1156.306601103452</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X19" t="n">
-        <v>913.7427045492574</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y19" t="n">
-        <v>913.7427045492574</v>
+        <v>796.7321961672538</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>4225.654392279956</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>4225.654392279956</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1019.226866224298</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C22" t="n">
-        <v>847.2543031032136</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D22" t="n">
-        <v>683.9375302299843</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E22" t="n">
-        <v>517.7293243828378</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F22" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5938,22 +5940,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2065.542080025265</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1953.151903628303</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1678.299499800816</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1435.735603246621</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="Y22" t="n">
-        <v>1209.392834936363</v>
+        <v>769.9464360574118</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>896.9441885421152</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C25" t="n">
-        <v>724.9716254210311</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D25" t="n">
-        <v>724.9716254210311</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E25" t="n">
-        <v>558.7634195738847</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>386.9016453484451</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1830.869225946121</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1556.016822118634</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1313.452925564439</v>
+        <v>856.9922193963826</v>
       </c>
       <c r="Y25" t="n">
-        <v>1087.110157254181</v>
+        <v>630.6494510861246</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1040.608704104281</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1970.233751723557</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2974.519853142615</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6306,19 +6308,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>769.9464360574118</v>
+        <v>775.7107933313494</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E28" t="n">
         <v>440.421457337036</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1186.455173079735</v>
+        <v>965.8767620434151</v>
       </c>
       <c r="Y28" t="n">
-        <v>960.1124047694775</v>
+        <v>965.8767620434151</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6543,25 +6545,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>557.3635891120873</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>557.3635891120873</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>703.5067984699893</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C31" t="n">
-        <v>703.5067984699893</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D31" t="n">
-        <v>540.1900255967601</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1972.984983455404</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1692.800534955708</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1411.089067563737</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.23666373625</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X31" t="n">
-        <v>893.6727671820549</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.6727671820549</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
         <v>4541.493855905342</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="C34" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2035.962215033811</v>
       </c>
       <c r="U34" t="n">
-        <v>1822.202732251165</v>
+        <v>1755.777766534115</v>
       </c>
       <c r="V34" t="n">
-        <v>1617.911331492611</v>
+        <v>1474.066299142144</v>
       </c>
       <c r="W34" t="n">
-        <v>1343.058927665124</v>
+        <v>1199.213895314657</v>
       </c>
       <c r="X34" t="n">
-        <v>1100.495031110929</v>
+        <v>956.6499987604623</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.1522628006715</v>
+        <v>730.3072304502043</v>
       </c>
     </row>
     <row r="35">
@@ -6941,22 +6943,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>795.2884438199453</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>623.3158806988613</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.492679006434</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1673.781211614463</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.928807786976</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1156.364911232781</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y37" t="n">
-        <v>1156.364911232781</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7178,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>3833.214576747414</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7211,13 +7213,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>417.9607561231137</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>417.9607561231137</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7339,43 +7341,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506134</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025269</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251169</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751473</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359502</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>1077.033389699632</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X40" t="n">
-        <v>834.4694931454374</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y40" t="n">
-        <v>608.1267248351794</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1313.136218986894</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>886.2354890001942</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>886.2354890001942</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>886.2354890001942</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>461.1113071895944</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>56.77224477904305</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>56.77224477904305</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>759.3287739197008</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.885303060359</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M41" t="n">
-        <v>1461.885303060359</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.441832201016</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>2164.441832201016</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>2838.612238952152</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>2838.612238952152</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2745.220257255416</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2486.865347851828</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2129.375932978077</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>1732.984583278424</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>1732.984583278424</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1732.984583278424</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>623.8957358104983</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C42" t="n">
-        <v>506.3898323280031</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D42" t="n">
-        <v>402.5498738432881</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E42" t="n">
-        <v>297.8479401162253</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F42" t="n">
-        <v>204.2021097991295</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G42" t="n">
-        <v>110.1483380167335</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H42" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I42" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J42" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K42" t="n">
-        <v>460.3468170782372</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L42" t="n">
-        <v>460.3468170782372</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="M42" t="n">
-        <v>1162.903346218895</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="N42" t="n">
-        <v>1865.459875359553</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="O42" t="n">
-        <v>1865.459875359553</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="P42" t="n">
-        <v>1865.459875359553</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="Q42" t="n">
-        <v>1865.459875359553</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R42" t="n">
-        <v>1865.459875359553</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S42" t="n">
-        <v>1784.135627920807</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T42" t="n">
-        <v>1642.255692218486</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U42" t="n">
-        <v>1457.487496138122</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V42" t="n">
-        <v>1252.514357277388</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W42" t="n">
-        <v>1055.992980110606</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X42" t="n">
-        <v>892.5156338772687</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y42" t="n">
-        <v>752.8227452305611</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>805.126674274873</v>
+        <v>876.1450260381521</v>
       </c>
       <c r="C43" t="n">
-        <v>633.154111153789</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="D43" t="n">
-        <v>469.8373382805597</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E43" t="n">
-        <v>303.6291324334132</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F43" t="n">
-        <v>131.7673582079737</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G43" t="n">
-        <v>131.7673582079737</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H43" t="n">
-        <v>131.7673582079737</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>695.480495503459</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2190.146658879345</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2020.01161139848</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>1776.672263624379</v>
+        <v>1939.236114067564</v>
       </c>
       <c r="U43" t="n">
-        <v>1496.487815124684</v>
+        <v>1659.051665567868</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.487815124684</v>
+        <v>1377.340198175897</v>
       </c>
       <c r="W43" t="n">
-        <v>1221.635411297197</v>
+        <v>1102.48779434841</v>
       </c>
       <c r="X43" t="n">
-        <v>1221.635411297197</v>
+        <v>1102.48779434841</v>
       </c>
       <c r="Y43" t="n">
-        <v>995.2926429869387</v>
+        <v>876.1450260381521</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1609.173036517259</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>1182.272306530559</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>758.9796857155595</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>758.9796857155595</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>758.9796857155595</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>354.6406233050082</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>56.77224477904305</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L44" t="n">
-        <v>759.3287739197008</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M44" t="n">
-        <v>1315.942845788934</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>2018.499374929592</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>2721.05590407025</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2721.05590407025</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2721.05590407025</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2838.612238952152</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2838.612238952152</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2838.612238952152</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>2442.2208892525</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2434.358670853899</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2029.021400808789</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>623.8957358104983</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>506.3898323280031</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>402.5498738432881</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>297.8479401162253</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>204.2021097991295</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>110.1483380167335</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>56.77224477904305</v>
+        <v>3466.857102648587</v>
       </c>
       <c r="K45" t="n">
-        <v>56.77224477904305</v>
+        <v>3466.857102648587</v>
       </c>
       <c r="L45" t="n">
-        <v>56.77224477904305</v>
+        <v>3832.512987391932</v>
       </c>
       <c r="M45" t="n">
-        <v>759.3287739197008</v>
+        <v>3832.512987391932</v>
       </c>
       <c r="N45" t="n">
-        <v>1461.885303060359</v>
+        <v>4921.827933864802</v>
       </c>
       <c r="O45" t="n">
-        <v>1865.459875359553</v>
+        <v>4921.827933864802</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.459875359553</v>
+        <v>4921.827933864802</v>
       </c>
       <c r="Q45" t="n">
-        <v>1865.459875359553</v>
+        <v>4921.827933864802</v>
       </c>
       <c r="R45" t="n">
-        <v>1865.459875359553</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1784.135627920807</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1642.255692218486</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1457.487496138122</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.514357277388</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1055.992980110606</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>892.5156338772687</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>752.8227452305611</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1139.95336730328</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="C46" t="n">
-        <v>967.9808041821959</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="D46" t="n">
-        <v>804.6640313089666</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E46" t="n">
-        <v>638.4558254618202</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F46" t="n">
-        <v>466.5940512363806</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G46" t="n">
-        <v>300.3370815306127</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>156.5408130387671</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>695.480495503459</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2237.185272192171</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2237.185272192171</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2237.185272192171</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>2237.185272192171</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>2073.878404707285</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.026000879798</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="X46" t="n">
-        <v>1556.462104325604</v>
+        <v>1015.517151278464</v>
       </c>
       <c r="Y46" t="n">
-        <v>1330.119336015346</v>
+        <v>789.1743829682065</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>452.2898123070841</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8070,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>185.9918631203547</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>745.4176605328474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>600.5484786641715</v>
+        <v>453.322231905261</v>
       </c>
       <c r="M5" t="n">
-        <v>747.0843226374699</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>747.0440190940622</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>65.23875905857382</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>732.1681464522677</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>731.4239009428668</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>137.3086334867791</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>746.9326825724842</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>747.0440190940622</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>747.2284215482694</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>461.4026962257055</v>
       </c>
       <c r="O9" t="n">
-        <v>461.1788238503123</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>731.4239009428668</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>745.4176605328474</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>600.5484786641715</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>746.9326825724842</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>747.0440190940622</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>501.6267206475044</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>16.56454271103915</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>313.5798653613924</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1681464522677</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>745.4176605328474</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>599.6676991309804</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>746.9326825724842</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>747.0440190940622</v>
+        <v>382.6985455853151</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9009,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>699.9714326937866</v>
       </c>
       <c r="M15" t="n">
-        <v>430.7478636428272</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>730.9960879515797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>732.8249494602603</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9173,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>370.4410136063929</v>
+        <v>736.7071336234585</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9249,16 +9251,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>844.6581757653672</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9410,19 +9412,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335774</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9732,13 +9734,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>617.2823097660786</v>
+        <v>630.9692526488932</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9884,10 +9886,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>528.4187726313924</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>482.0566840416755</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>453.1210588457837</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10212,7 +10214,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>728.3675687028222</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10589,7 +10591,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q35" t="n">
-        <v>440.9328573103608</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10674,10 +10676,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>163.6072147261337</v>
       </c>
       <c r="O36" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
@@ -10686,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>763.430074865614</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10905,25 +10907,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>444.2732579605956</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>745.4176605328474</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>747.965102170661</v>
+        <v>119.7858681845732</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>746.9326825724842</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.5555706497626</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,16 +11141,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>430.0503169638325</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>732.7498402503661</v>
+        <v>535.9688468101295</v>
       </c>
       <c r="N42" t="n">
-        <v>730.9960879515797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>747.965102170661</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M44" t="n">
-        <v>599.6676991309804</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>746.9326825724842</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>747.0440190940622</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,22 +11375,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>391.8644652428607</v>
       </c>
       <c r="M45" t="n">
-        <v>732.7498402503661</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>730.9960879515797</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>430.8229728527214</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11397,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>382.1223668653375</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>190.74789777557</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>153.8082847874099</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>47.1854451728326</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>162.0793216105843</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>50.12656687328808</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>122.5754395060284</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>167.628078085059</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>26.78536087879971</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>25.19976319244697</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>120.4569035619894</v>
+        <v>220.7563836049429</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>2.540411739665615</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>102.7062015124977</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,16 +25083,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>211.6218879548194</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>76.64586596708327</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.3211618981293</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.164249804965</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25564,7 +25566,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>90.66318739594129</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.346971505336569</v>
       </c>
     </row>
     <row r="41">
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>126.2582533660442</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>24.52572028248547</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>118.0665588398052</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25871,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>399.8192026293154</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>55.29561009208696</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>415185.6762316414</v>
+        <v>594943.5166598115</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>415185.6762316414</v>
+        <v>594943.5166598115</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>604182.6833727559</v>
+        <v>604182.6833727557</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>604182.6833727558</v>
+        <v>604182.6833727559</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>604182.6833727559</v>
+        <v>604182.6833727558</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>415185.6762316413</v>
+        <v>594943.5166598115</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>415185.6762316415</v>
+        <v>594943.5166598115</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26322,16 @@
         <v>393148.800907535</v>
       </c>
       <c r="E2" t="n">
-        <v>260697.9827501004</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="F2" t="n">
-        <v>260697.9827501005</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="G2" t="n">
-        <v>379370.5221177768</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="H2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="I2" t="n">
         <v>379370.5221177769</v>
@@ -26338,22 +26340,22 @@
         <v>379370.522117777</v>
       </c>
       <c r="K2" t="n">
-        <v>379370.5221177767</v>
+        <v>379370.522117777</v>
       </c>
       <c r="L2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="M2" t="n">
         <v>379370.522117777</v>
       </c>
       <c r="N2" t="n">
-        <v>379370.5221177771</v>
+        <v>379370.522117777</v>
       </c>
       <c r="O2" t="n">
-        <v>260697.9827501003</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="P2" t="n">
-        <v>260697.9827501004</v>
+        <v>373569.1848794166</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>49567.19967603217</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155990.2311696563</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>39486.74887272517</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>139507.7493322929</v>
       </c>
       <c r="C4" t="n">
-        <v>112528.8647449998</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="D4" t="n">
-        <v>112528.8647449998</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>530.9889874707699</v>
+        <v>786.9066424250628</v>
       </c>
       <c r="F4" t="n">
-        <v>530.9889874707699</v>
+        <v>786.9066424250632</v>
       </c>
       <c r="G4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433673</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>530.98898747077</v>
+        <v>786.906642425063</v>
       </c>
       <c r="P4" t="n">
-        <v>530.9889874707699</v>
+        <v>786.9066424250631</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>76774.50603207271</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>76774.50603207271</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-209.9328769232379</v>
+        <v>-209.9328769231215</v>
       </c>
       <c r="C6" t="n">
-        <v>154278.2304544304</v>
+        <v>186194.8005378141</v>
       </c>
       <c r="D6" t="n">
-        <v>203845.4301304625</v>
+        <v>186194.8005378139</v>
       </c>
       <c r="E6" t="n">
-        <v>217020.0877305569</v>
+        <v>89291.51251239816</v>
       </c>
       <c r="F6" t="n">
-        <v>217020.087730557</v>
+        <v>296723.8001289589</v>
       </c>
       <c r="G6" t="n">
-        <v>144830.1684997475</v>
+        <v>293194.7775859223</v>
       </c>
       <c r="H6" t="n">
-        <v>300820.3996694039</v>
+        <v>300820.399669404</v>
       </c>
       <c r="I6" t="n">
         <v>300820.3996694039</v>
       </c>
       <c r="J6" t="n">
-        <v>155286.7297345874</v>
+        <v>155286.7297345875</v>
       </c>
       <c r="K6" t="n">
-        <v>261333.6507966785</v>
+        <v>300820.3996694039</v>
       </c>
       <c r="L6" t="n">
-        <v>300820.3996694038</v>
+        <v>300820.3996694039</v>
       </c>
       <c r="M6" t="n">
-        <v>300820.399669404</v>
+        <v>127689.9084637644</v>
       </c>
       <c r="N6" t="n">
         <v>300820.399669404</v>
       </c>
       <c r="O6" t="n">
-        <v>217020.0877305568</v>
+        <v>296723.800128959</v>
       </c>
       <c r="P6" t="n">
-        <v>217020.0877305569</v>
+        <v>296723.8001289591</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>153.425246622444</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>569.1308578348187</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>153.425246622444</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>153.425246622444</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>569.1308578348187</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>82.2306966904182</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>11.66829397508724</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.0981677402022</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>18.93178961241875</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>10.86354244162041</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27679,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>383.2660976947092</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>111.8076272173318</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>253.6747727851728</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>42.40931307543013</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>98.6587917549312</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>163.7887810877122</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>134.0471675772183</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -30283,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-4.484950034982556e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30411,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>415.0101894726381</v>
-      </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,14 +34777,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>162.8199733981324</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>562.2364362315486</v>
+        <v>415.010189472638</v>
       </c>
       <c r="M5" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42.83952522524049</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>101.5440326919697</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>709.6530597380381</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="O9" t="n">
-        <v>438.0069341280901</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>709.6530597380381</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2364362315486</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>709.6530597380381</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>464.0513588372731</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.3921559610391526</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>291.1806315280591</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>709.6530597380381</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>709.6530597380381</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>562.2364362315486</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>709.6530597380381</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>709.6530597380381</v>
+        <v>345.307586229291</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>677.456345979557</v>
       </c>
       <c r="M15" t="n">
-        <v>407.6510831304992</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35893,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>333.1613907719469</v>
+        <v>699.4275107890124</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36130,19 +36132,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212494</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>581.5177089712693</v>
+        <v>595.2046518540839</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36604,10 +36606,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>430.0242783334557</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>690.7922068925909</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37309,7 +37311,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q35" t="n">
-        <v>404.8081827057627</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>142.264186512592</v>
       </c>
       <c r="O36" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>726.1504520311679</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37709,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>395.1371666366207</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
         <v>381.3045564404402</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>709.6530597380381</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>709.6530597380381</v>
+        <v>81.47382575195027</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>709.6530597380381</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.9802088395313</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>407.6510831304992</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>709.6530597380381</v>
+        <v>512.8720662978016</v>
       </c>
       <c r="N42" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>709.6530597380381</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M44" t="n">
-        <v>562.2364362315486</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>709.6530597380381</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>709.6530597380381</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>369.3493785286311</v>
       </c>
       <c r="M45" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>709.6530597380381</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>407.6510831304992</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1743196.57133794</v>
+        <v>1742478.581223081</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760743</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>410.0488764785338</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>49.79079256199689</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>25.13775189891358</v>
       </c>
       <c r="V4" t="n">
-        <v>259.9625631056326</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>262.440962427819</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.33670114922102</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1062,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>58.33552926585337</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1144,16 +1144,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>302.6251055897274</v>
+        <v>145.342079697397</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>8.311138229708806</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>146.5244419334989</v>
       </c>
       <c r="X13" t="n">
-        <v>49.39035981308291</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1612,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>311.0876633699169</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1666,7 +1666,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>349.2661106736706</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1773,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>2.466802178090668</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>212.4615124460891</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>48.6443157038387</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2256,7 +2256,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>123.9086344760396</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>213.3528967098532</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>42.31046081014874</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2535,13 +2535,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>127.1775712042722</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>19.38187398371</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>167.7124257502075</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3189,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>115.3288057180334</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>29.28406634153955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>16.519355339532</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3441,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>170.7512152514375</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>24.25402641018508</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.7323691218188</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>23.57735264034112</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>122.8393954565538</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3988,16 +3988,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>312.9009087555611</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>106.38799505241</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4191,10 +4191,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>123.2089098739604</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>854.9492380147274</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C2" t="n">
-        <v>832.0889120684316</v>
+        <v>1369.185697387592</v>
       </c>
       <c r="D2" t="n">
-        <v>812.8366952938359</v>
+        <v>945.8930765725927</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>519.9161367204503</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>94.79195490985046</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,22 +4333,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>572.914647509062</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O2" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1276.094468310963</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>870.7571982658534</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>866.8612493132769</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N3" t="n">
-        <v>866.8612493132769</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O3" t="n">
-        <v>866.8612493132769</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>964.3625747002551</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C4" t="n">
-        <v>792.3900115791711</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1934.53329137545</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="V4" t="n">
-        <v>1671.944843794003</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W4" t="n">
-        <v>1397.092439966515</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X4" t="n">
-        <v>1154.528543412321</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y4" t="n">
-        <v>1154.528543412321</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1674.816201625927</v>
+        <v>372.1612950161458</v>
       </c>
       <c r="C5" t="n">
-        <v>1247.915471639227</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.543958335517</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>2095.961431922162</v>
+        <v>1197.346929352786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.624161877053</v>
+        <v>792.0096593076759</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7123380797763</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>266.7397749586924</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>103.4230020854631</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>103.4230020854631</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483782</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.784971656295</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>855.2210751020999</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>628.878306791842</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.7353935451185</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>843.8750675988227</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D8" t="n">
-        <v>824.622850824227</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>802.6863150124886</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4813,43 +4813,43 @@
         <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.98568150701</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X8" t="n">
-        <v>1592.265682674757</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.583757836649</v>
+        <v>549.7781040137505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>992.2781682025568</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>820.3056050814728</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>656.9888322082435</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>490.780626361097</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>318.9188521356574</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6618824298895</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4992,22 +4992,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1981.571904688275</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1981.571904688275</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.860437296304</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1425.008033468817</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.444136914623</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1182.444136914623</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
         <v>2111.574999549778</v>
@@ -5056,10 +5056,10 @@
         <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>4088.350919196421</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445321</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
         <v>5003.847243949504</v>
@@ -5068,25 +5068,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.4651792804189</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4651792804189</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>100.4651792804189</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L12" t="n">
-        <v>937.263987363325</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M12" t="n">
-        <v>937.263987363325</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N12" t="n">
-        <v>937.263987363325</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O12" t="n">
-        <v>1826.745265374797</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
         <v>1826.745265374797</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>706.996623358467</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="C13" t="n">
-        <v>535.024060237383</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D13" t="n">
-        <v>371.7072873641537</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E13" t="n">
-        <v>371.7072873641537</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F13" t="n">
-        <v>199.8455131387141</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G13" t="n">
-        <v>199.8455131387141</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.081047832659</v>
+        <v>1718.594056400451</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051723</v>
+        <v>1570.589569598937</v>
       </c>
       <c r="X13" t="n">
-        <v>933.3393916687249</v>
+        <v>1328.025673044742</v>
       </c>
       <c r="Y13" t="n">
-        <v>706.996623358467</v>
+        <v>1101.682904734485</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
         <v>1688.282378734778</v>
@@ -5293,37 +5293,37 @@
         <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4430.205429563419</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>770.7587273987515</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>1826.745265374797</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N15" t="n">
-        <v>1826.745265374797</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O15" t="n">
-        <v>1826.745265374797</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P15" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
         <v>1826.745265374797</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6798067024497</v>
+        <v>601.5744867204498</v>
       </c>
       <c r="C16" t="n">
-        <v>675.7072435813657</v>
+        <v>429.6019235993658</v>
       </c>
       <c r="D16" t="n">
-        <v>512.3904707081364</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="E16" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2063.316311498426</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>2063.316311498426</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V16" t="n">
-        <v>1781.604844106455</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W16" t="n">
-        <v>1506.752440278968</v>
+        <v>1260.647120296968</v>
       </c>
       <c r="X16" t="n">
-        <v>1264.188543724773</v>
+        <v>1018.083223742773</v>
       </c>
       <c r="Y16" t="n">
-        <v>1037.845775414515</v>
+        <v>791.7404554325155</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>381.4468456473314</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>796.7321961672538</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>624.7596330461698</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>461.4428601729405</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>295.2346543257941</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>295.2346543257941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>295.2346543257941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>151.4383858339484</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.491264859194</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.638861031707</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>1023.074964477512</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>796.7321961672538</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5737,16 +5737,16 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>769.9464360574118</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C22" t="n">
-        <v>769.9464360574118</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D22" t="n">
-        <v>606.6296631841825</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E22" t="n">
-        <v>440.421457337036</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>227.462950250313</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X22" t="n">
-        <v>769.9464360574118</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y22" t="n">
-        <v>769.9464360574118</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.483482374059</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C25" t="n">
-        <v>268.510919252975</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D25" t="n">
-        <v>268.510919252975</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X25" t="n">
-        <v>856.9922193963826</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y25" t="n">
-        <v>630.6494510861246</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>1194.79262694784</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>775.7107933313494</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>603.7382302102653</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>965.8767620434151</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.8767620434151</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
         <v>1364.825557038856</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>601.2341827829796</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>431.8276921262043</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6660,13 +6660,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1260.306816359498</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1017.742919805303</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>791.4001514950452</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.1412617381386</v>
+        <v>1058.412742328024</v>
       </c>
       <c r="C34" t="n">
-        <v>540.1412617381386</v>
+        <v>886.4401792069405</v>
       </c>
       <c r="D34" t="n">
-        <v>540.1412617381386</v>
+        <v>723.1234063337112</v>
       </c>
       <c r="E34" t="n">
-        <v>373.9330558909921</v>
+        <v>556.9152004865647</v>
       </c>
       <c r="F34" t="n">
-        <v>202.0712816655526</v>
+        <v>385.0534262611251</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>218.7964565553572</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.962215033811</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.777766534115</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V34" t="n">
-        <v>1474.066299142144</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="W34" t="n">
-        <v>1199.213895314657</v>
+        <v>1717.485375904543</v>
       </c>
       <c r="X34" t="n">
-        <v>956.6499987604623</v>
+        <v>1474.921479350348</v>
       </c>
       <c r="Y34" t="n">
-        <v>730.3072304502043</v>
+        <v>1248.57871104009</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7019,22 +7019,22 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N36" t="n">
-        <v>1112.773316863137</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O36" t="n">
-        <v>1112.773316863137</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
         <v>1828.971033901635</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>795.2884438199453</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>623.3158806988613</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7125,22 +7125,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1893.066105023813</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1893.066105023813</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1893.066105023813</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1618.213701196326</v>
       </c>
       <c r="X37" t="n">
-        <v>985.454412532011</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.454412532011</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7253,22 +7253,22 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>946.5481644506465</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>946.5481644506465</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>946.5481644506465</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>946.5481644506465</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>609.4538236255814</v>
+        <v>733.72140846125</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4812605044974</v>
+        <v>561.748845340166</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>398.4320724669367</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>398.4320724669367</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>226.5702982414971</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>226.5702982414971</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923982</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1024.601983369787</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.6197923376471</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.530441767978</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
         <v>2876.781500254679</v>
@@ -7438,25 +7438,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822645</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>4031.958421451902</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M42" t="n">
-        <v>4539.701767086725</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N42" t="n">
-        <v>4539.701767086725</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>4539.701767086725</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>4539.701767086725</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>876.1450260381521</v>
+        <v>567.495358202754</v>
       </c>
       <c r="C43" t="n">
-        <v>704.1724629170681</v>
+        <v>395.52279508167</v>
       </c>
       <c r="D43" t="n">
-        <v>704.1724629170681</v>
+        <v>395.52279508167</v>
       </c>
       <c r="E43" t="n">
-        <v>537.9642570699216</v>
+        <v>395.52279508167</v>
       </c>
       <c r="F43" t="n">
-        <v>366.102482844482</v>
+        <v>223.6610208562304</v>
       </c>
       <c r="G43" t="n">
         <v>199.8455131387141</v>
@@ -7599,22 +7599,22 @@
         <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>1939.236114067564</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U43" t="n">
-        <v>1659.051665567868</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V43" t="n">
-        <v>1377.340198175897</v>
+        <v>1501.420395606759</v>
       </c>
       <c r="W43" t="n">
-        <v>1102.48779434841</v>
+        <v>1226.567991779272</v>
       </c>
       <c r="X43" t="n">
-        <v>1102.48779434841</v>
+        <v>984.0040952250775</v>
       </c>
       <c r="Y43" t="n">
-        <v>876.1450260381521</v>
+        <v>757.6613269148196</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7651,10 +7651,10 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>896.2443403489199</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M44" t="n">
         <v>1900.530441767978</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3466.857102648587</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3466.857102648587</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>3832.512987391932</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M45" t="n">
-        <v>3832.512987391932</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
-        <v>4921.827933864802</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>4921.827933864802</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>4921.827933864802</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>4921.827933864802</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.1743829682065</v>
+        <v>1083.489499143503</v>
       </c>
       <c r="C46" t="n">
-        <v>789.1743829682065</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D46" t="n">
-        <v>681.7117617031458</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E46" t="n">
-        <v>515.5035558559994</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6417816305598</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.081047832659</v>
+        <v>1742.562132720021</v>
       </c>
       <c r="W46" t="n">
-        <v>1258.081047832659</v>
+        <v>1742.562132720021</v>
       </c>
       <c r="X46" t="n">
-        <v>1015.517151278464</v>
+        <v>1499.998236165826</v>
       </c>
       <c r="Y46" t="n">
-        <v>789.1743829682065</v>
+        <v>1273.655467855569</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
@@ -7993,13 +7993,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>372.8619081923508</v>
       </c>
       <c r="P3" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733348</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,22 +8461,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>452.4414523720699</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>571.3293238908518</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>177.813198534673</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>461.4026962257055</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>501.6267206475044</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.56454271103915</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8774,7 +8774,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>382.6985455853151</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9011,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>699.9714326937866</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>910.6437127227809</v>
       </c>
       <c r="N17" t="n">
-        <v>736.7071336234585</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>844.6581757653672</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,7 +9260,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9412,10 +9412,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>632.4842746885297</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9488,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>229.9655591801901</v>
+        <v>1097.502645866297</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9503,7 +9503,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>196.7283130837754</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>630.9692526488932</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9886,13 +9886,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>528.4187726313924</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>453.1210588457837</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10208,7 +10208,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>488.0298379845275</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10436,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10600,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>163.6072147261337</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10828,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10901,13 +10901,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,10 +10916,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P39" t="n">
-        <v>444.2732579605956</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>119.7858681845732</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>535.9688468101295</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11159,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,13 +11299,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>476.2554127892232</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>767.069374108112</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>391.8644652428607</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11399,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>125.5794378557132</v>
       </c>
       <c r="X13" t="n">
-        <v>190.74789777557</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>4.64841005134241</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>162.0793216105843</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>59.64236734312303</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.23940003763305</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>50.12656687328808</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>18.44967133088755</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>26.78536087879971</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,13 +24372,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>122.2356629785262</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>220.7563836049429</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.540411739665615</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283262</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>27.02950008889376</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>211.6218879548194</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.164249804965</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>70.15473904492146</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>118.1042793967421</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.346971505336569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>141.017047368369</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.0665588398052</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>55.29561009208696</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.685442844091</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>604182.6833727557</v>
+        <v>604182.6833727558</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>604182.6833727559</v>
+        <v>604182.6833727558</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>594943.5166598115</v>
+        <v>594943.5166598114</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393148.8009075351</v>
+        <v>393148.8009075352</v>
       </c>
       <c r="C2" t="n">
         <v>393148.8009075351</v>
@@ -26322,13 +26322,13 @@
         <v>393148.800907535</v>
       </c>
       <c r="E2" t="n">
-        <v>373569.1848794166</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="F2" t="n">
         <v>373569.1848794164</v>
       </c>
       <c r="G2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="H2" t="n">
         <v>379370.522117777</v>
@@ -26337,25 +26337,25 @@
         <v>379370.5221177769</v>
       </c>
       <c r="J2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177767</v>
       </c>
       <c r="K2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="L2" t="n">
         <v>379370.522117777</v>
       </c>
       <c r="M2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177767</v>
       </c>
       <c r="N2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="O2" t="n">
-        <v>373569.1848794165</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="P2" t="n">
-        <v>373569.1848794166</v>
+        <v>373569.1848794164</v>
       </c>
     </row>
     <row r="3">
@@ -26426,22 +26426,22 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>786.9066424250628</v>
+        <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
-        <v>786.9066424250632</v>
+        <v>786.906642425063</v>
       </c>
       <c r="G4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433671</v>
@@ -26450,10 +26450,10 @@
         <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
         <v>786.906642425063</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-209.9328769231215</v>
+        <v>-209.9328769230633</v>
       </c>
       <c r="C6" t="n">
-        <v>186194.8005378141</v>
+        <v>186194.800537814</v>
       </c>
       <c r="D6" t="n">
         <v>186194.8005378139</v>
       </c>
       <c r="E6" t="n">
-        <v>89291.51251239816</v>
+        <v>89218.99541599749</v>
       </c>
       <c r="F6" t="n">
-        <v>296723.8001289589</v>
+        <v>296651.2830325585</v>
       </c>
       <c r="G6" t="n">
-        <v>293194.7775859223</v>
+        <v>293143.7469237382</v>
       </c>
       <c r="H6" t="n">
-        <v>300820.399669404</v>
+        <v>300769.3690072196</v>
       </c>
       <c r="I6" t="n">
-        <v>300820.3996694039</v>
+        <v>300769.3690072196</v>
       </c>
       <c r="J6" t="n">
-        <v>155286.7297345875</v>
+        <v>155235.6990724028</v>
       </c>
       <c r="K6" t="n">
-        <v>300820.3996694039</v>
+        <v>300769.3690072196</v>
       </c>
       <c r="L6" t="n">
-        <v>300820.3996694039</v>
+        <v>300769.3690072197</v>
       </c>
       <c r="M6" t="n">
-        <v>127689.9084637644</v>
+        <v>127638.8778015798</v>
       </c>
       <c r="N6" t="n">
-        <v>300820.399669404</v>
+        <v>300769.3690072195</v>
       </c>
       <c r="O6" t="n">
-        <v>296723.800128959</v>
+        <v>296651.2830325587</v>
       </c>
       <c r="P6" t="n">
-        <v>296723.8001289591</v>
+        <v>296651.2830325585</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.66829397508724</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>252.2448521157852</v>
       </c>
       <c r="V4" t="n">
-        <v>18.93178961241875</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>160.1907602590138</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>383.2660976947092</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>111.8076272173318</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27864,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>98.6587917549312</v>
+        <v>255.9418176472615</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>134.0471675772183</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
@@ -34713,13 +34713,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="P3" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>415.0101894726381</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>533.7539620806206</v>
-      </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>155.2981118204434</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>440.0596680121639</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35424,13 +35424,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>464.0513588372731</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3921559610391526</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>345.307586229291</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>677.456345979557</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>873.2124498233492</v>
       </c>
       <c r="N17" t="n">
-        <v>699.4275107890124</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>821.5613952530392</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36132,10 +36132,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>595.2046518540836</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>208.6225309666485</v>
+        <v>1076.159617652755</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>174.9574718789467</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>595.2046518540839</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36606,13 +36606,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>430.0242783334557</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>451.9051633799294</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37320,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>142.264186512592</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37548,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37621,13 +37621,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P39" t="n">
-        <v>422.5024167557669</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>81.47382575195027</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>512.8720662978016</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>437.9433703566003</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>729.6381112086802</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>369.3493785286311</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
